--- a/Datos/Anuario2024/130603_ExhibicionFilmotecaValencia.xlsx
+++ b/Datos/Anuario2024/130603_ExhibicionFilmotecaValencia.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="113" r:id="rId1"/>
+    <sheet name="1" sheetId="11" r:id="rId2"/>
+    <sheet name="2" sheetId="112" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -50,81 +56,185 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>Recaudación</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Espectadores</t>
+  </si>
+  <si>
+    <t>1. Número de películas proyectadas, espectadores y recaudación. 2023</t>
+  </si>
+  <si>
+    <t>Películas proyectadas</t>
+  </si>
+  <si>
+    <t>2. Películas proyectadas con mayor número de espectadores. 2023</t>
+  </si>
+  <si>
+    <t>E.T., el extraterrestre</t>
+  </si>
+  <si>
+    <t>Mulholland Drive</t>
+  </si>
+  <si>
+    <t>Fue la mano de Dios</t>
+  </si>
+  <si>
+    <t>La gran belleza</t>
+  </si>
+  <si>
+    <t>Corazón salvaje</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>Aftersun</t>
+  </si>
+  <si>
+    <t>Terciopelo azul</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>El cielo sobre Berlín</t>
+  </si>
+  <si>
+    <t>Las consecuencias del amor</t>
+  </si>
+  <si>
+    <t>Uno de los nuestros</t>
+  </si>
+  <si>
+    <t>Alcarràs</t>
+  </si>
+  <si>
+    <t>Unicorn Wars</t>
+  </si>
+  <si>
+    <t>El hombre elefante</t>
+  </si>
+  <si>
+    <t>Licorice Pizza</t>
+  </si>
+  <si>
+    <t>Carretera perdida</t>
+  </si>
+  <si>
+    <t>La juventud</t>
+  </si>
+  <si>
+    <t>El amigo americano</t>
+  </si>
+  <si>
+    <t>El viaje de Ernest y Celestine</t>
+  </si>
+  <si>
+    <t>Una historia verdadera</t>
+  </si>
+  <si>
+    <t>Un lugar donde quedarse</t>
+  </si>
+  <si>
+    <t>Cabeza borradora</t>
+  </si>
+  <si>
+    <t>Solo los amantes sobreviven</t>
+  </si>
+  <si>
+    <t>Un hombre de más</t>
+  </si>
+  <si>
+    <t>LA FILMOTECA DE VALÈNCIA</t>
+  </si>
+  <si>
+    <t>Fuente: Instituto Valenciano de Cultura.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,63 +263,62 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Moneda" xfId="6" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal_7.2" xfId="4"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Normal_7.2" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Moneda" xfId="6" builtinId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -278,13 +387,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -525,8 +652,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5027,8 +5154,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5728,455 +5855,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
-        <is>
-          <t>LA FILMOTECA DE VALÈNCIA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja38">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="16.42578125" customWidth="1" min="2" max="3"/>
-    <col width="13.140625" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
-        <is>
-          <t>1. Número de películas proyectadas, espectadores y recaudación. 2023</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
       </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="8" t="n"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>Películas proyectadas</t>
-        </is>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Espectadores</t>
-        </is>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>Recaudación</t>
-        </is>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>274</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="16">
         <v>41116</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="17">
         <v>57435.5</v>
       </c>
-      <c r="D4" s="22" t="n"/>
+      <c r="D4" s="10"/>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Instituto Valenciano de Cultura.</t>
-        </is>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="n"/>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="n"/>
-      <c r="B28" s="5" t="n"/>
-      <c r="C28" s="5" t="n"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="n"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="26.42578125" customWidth="1" min="1" max="1"/>
-    <col width="15.85546875" customWidth="1" min="2" max="2"/>
-    <col width="13.5703125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>2. Películas proyectadas con mayor número de espectadores. 2023</t>
-        </is>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
       </c>
-      <c r="B1" s="7" t="n"/>
+      <c r="B1" s="7"/>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="12" t="n"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="12"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>E.T., el extraterrestre</t>
-        </is>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="3">
         <v>515</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Mulholland Drive</t>
-        </is>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="14" t="n">
+      <c r="B5" s="14">
         <v>378</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>Fue la mano de Dios</t>
-        </is>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>La gran belleza</t>
-        </is>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>9</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="14">
         <v>378</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t>Corazón salvaje</t>
-        </is>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>10</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>Barbie</t>
-        </is>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>11</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="14">
         <v>378</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Aftersun</t>
-        </is>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Terciopelo azul</t>
-        </is>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>13</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="14">
         <v>378</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Bird</t>
-        </is>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="3">
         <v>376</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>El cielo sobre Berlín</t>
-        </is>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>15</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="14">
         <v>367</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>Las consecuencias del amor</t>
-        </is>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="3">
         <v>366</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Uno de los nuestros</t>
-        </is>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>17</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="14">
         <v>360</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>Alcarràs</t>
-        </is>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>Unicorn Wars</t>
-        </is>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>19</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="14">
         <v>329</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>El hombre elefante</t>
-        </is>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="3">
         <v>324</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>Licorice Pizza</t>
-        </is>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="14">
         <v>315</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Carretera perdida</t>
-        </is>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="3">
         <v>313</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>La juventud</t>
-        </is>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="14">
         <v>307</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="19" t="inlineStr">
-        <is>
-          <t>El amigo americano</t>
-        </is>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>24</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>El viaje de Ernest y Celestine</t>
-        </is>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="14">
         <v>302</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>Una historia verdadera</t>
-        </is>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Un lugar donde quedarse</t>
-        </is>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="14">
         <v>291</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="8" t="inlineStr">
-        <is>
-          <t>Cabeza borradora</t>
-        </is>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>28</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="18" t="inlineStr">
-        <is>
-          <t>Solo los amantes sobreviven</t>
-        </is>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="14">
         <v>290</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="19" t="inlineStr">
-        <is>
-          <t>Un hombre de más</t>
-        </is>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>30</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Instituto Valenciano de Cultura.</t>
-        </is>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="90"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>